--- a/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
+++ b/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,1852 +434,3164 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>新加坡</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>34.52</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>1.19</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>港口</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>准班率(%)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>挂靠数</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>班期综合服务水平</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>在港时间(天)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>在泊時間(天)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>港口_time</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>准班率(%)_time</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>挂靠数_time</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>班期综合服务水平_time</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>在港时间(天)_time</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>在泊時間(天)_time</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>34.52</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>30.63</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>丹吉尔</t>
+          <t>30.63</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>51.01</t>
+          <t>284</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>丹吉尔</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>宁波舟山</t>
+          <t>51.01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>宁波舟山</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>29.37</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>252</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>280</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>安特卫普</t>
+          <t>50.93</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>38.19</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>安特卫普</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>釜山</t>
+          <t>38.19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>144</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>釜山</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>鹿特丹</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>186</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>鹿特丹</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>40.48</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>53.76</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>迪拜</t>
+          <t>53.76</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46.23</t>
+          <t>93</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>迪拜</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>46.23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>39.17</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>高雄</t>
+          <t>39.17</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>53.01</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>高雄</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>勒阿弗尔</t>
+          <t>53.01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>46.59</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>勒阿弗尔</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>纽约</t>
+          <t>46.59</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>38.68</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>纽约</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>巴生</t>
+          <t>38.68</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>46.75</t>
+          <t>106</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>巴生</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>诺福克</t>
+          <t>46.75</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>37.23</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>诺福克</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>丹戎帕拉帕斯</t>
+          <t>37.23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>44.74</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>丹戎帕拉帕斯</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>不莱梅</t>
+          <t>44.74</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>50.77</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>不莱梅</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>洛杉矶</t>
+          <t>50.77</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>洛杉矶</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瓦伦西亚</t>
+          <t>43.75</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>40.58</t>
+          <t>64</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>瓦伦西亚</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>长滩</t>
+          <t>40.58</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>69</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>长滩</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>南安普顿</t>
+          <t>89.29</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>南安普顿</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>萨凡纳</t>
+          <t>34.33</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>67</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>萨凡纳</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>桑托斯</t>
+          <t>26.44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26.14</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>桑托斯</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>奥克兰（美国）</t>
+          <t>26.14</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>奥克兰（美国）</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>林查班</t>
+          <t>36.84</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>57.58</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>林查班</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>比雷埃夫斯</t>
+          <t>57.58</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>42.22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>比雷埃夫斯</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>汉堡</t>
+          <t>42.22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>汉堡</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>塞德港</t>
+          <t>21.11</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>塞德港</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>热那亚</t>
+          <t>94.74</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>热那亚</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>拉各斯</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>37.21</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>拉各斯</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>休斯顿</t>
+          <t>37.21</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>休斯顿</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>横滨</t>
+          <t>31.37</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>横滨</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>墨尔本</t>
+          <t>30.23</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>墨尔本</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>曼萨尼约</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>48</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>曼萨尼约</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉达</t>
+          <t>24.07</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>54.55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>吉达</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>巴塞罗那</t>
+          <t>54.55</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>巴塞罗那</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>洛美</t>
+          <t>26.67</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>64.71</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>洛美</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>弗利克斯托</t>
+          <t>64.71</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>弗利克斯托</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>30.30</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>温哥华</t>
+          <t>30.30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>温哥华</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>28.57</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>57.14</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>泽布吕赫</t>
+          <t>57.14</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>泽布吕赫</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>奥克兰（新西兰）</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>奥克兰（新西兰）</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>丹戎不碌</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>丹戎不碌</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>42.86</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>德班</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>6.45</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>10.68</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>4.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>2024-09</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
+++ b/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
@@ -503,57 +503,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>34.52</t>
+          <t>44.97</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>310</t>
+          <t>338</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -565,119 +565,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30.63</t>
+          <t>39.04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>丹吉尔</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>51.01</t>
+          <t>32.42</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>330</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>2.41</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -689,384 +689,384 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29.37</t>
+          <t>37.83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>267</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>丹吉尔</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>51.27</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>158</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>釜山</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>50.93</t>
+          <t>33.96</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>安特卫普</t>
+          <t>巴生</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38.19</t>
+          <t>64.77</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>88</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>釜山</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>28.49</t>
+          <t>43.55</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>鹿特丹</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>40.48</t>
+          <t>52.53</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>99</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>安特卫普</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53.76</t>
+          <t>37.41</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>139</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1076,42 +1076,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -1123,74 +1123,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>46.23</t>
+          <t>40.80</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>125</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>丹戎帕拉帕斯</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>39.17</t>
+          <t>62.03</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1200,54 +1200,54 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>高雄</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53.01</t>
+          <t>54.22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1257,436 +1257,436 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>勒阿弗尔</t>
+          <t>洛杉矶</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>46.59</t>
+          <t>55.71</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>4.55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>纽约</t>
+          <t>鹿特丹</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38.68</t>
+          <t>29.13</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>巴生</t>
+          <t>勒阿弗尔</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>46.75</t>
+          <t>44.74</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>76</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>诺福克</t>
+          <t>瓦伦西亚</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>37.23</t>
+          <t>42.50</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>丹戎帕拉帕斯</t>
+          <t>高雄</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>44.74</t>
+          <t>39.76</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>83</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>不莱梅</t>
+          <t>桑托斯</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>50.77</t>
+          <t>38.82</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>洛杉矶</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>43.75</t>
+          <t>69.05</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1696,59 +1696,59 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>4.56</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>瓦伦西亚</t>
+          <t>纽约</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40.58</t>
+          <t>33.33</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>87</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1758,724 +1758,724 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>长滩</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>89.29</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>南安普顿</t>
+          <t>墨尔本</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>46.30</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>汉堡</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>24.49</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>98</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>奥克兰（美国）</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>34.33</t>
+          <t>40.35</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>57</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>萨凡纳</t>
+          <t>不莱梅</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>34.92</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>桑托斯</t>
+          <t>长滩</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>26.14</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>4.38</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>奥克兰（美国）</t>
+          <t>南安普顿</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>36.84</t>
+          <t>53.85</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>林查班</t>
+          <t>诺福克</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>57.58</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>84</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>比雷埃夫斯</t>
+          <t>塞德港</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>42.22</t>
+          <t>71.43</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>汉堡</t>
+          <t>巴塞罗那</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>21.11</t>
+          <t>37.25</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>塞德港</t>
+          <t>比雷埃夫斯</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2502,59 +2502,59 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>拉各斯</t>
+          <t>萨凡纳</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>37.21</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>85</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2564,228 +2564,228 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>休斯顿</t>
+          <t>横滨</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>31.37</t>
+          <t>34.78</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>横滨</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30.23</t>
+          <t>92.31</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>墨尔本</t>
+          <t>林查班</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>27.08</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -2797,677 +2797,677 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>24.07</t>
+          <t>21.82</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>吉达</t>
+          <t>温哥华</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54.55</t>
+          <t>37.93</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>巴塞罗那</t>
+          <t>拉各斯</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>26.67</t>
+          <t>30.56</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>36</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>洛美</t>
+          <t>德班</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>64.71</t>
+          <t>32.14</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.97</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>弗利克斯托</t>
+          <t>休斯顿</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>44.00</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>44</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>弗利克斯托</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>30.30</t>
+          <t>29.63</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>温哥华</t>
+          <t>吉达</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>28.57</t>
+          <t>38.89</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>洛美</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>57.14</t>
+          <t>37.50</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>泽布吕赫</t>
+          <t>奥克兰（新西兰）</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>29.41</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>奥克兰（新西兰）</t>
+          <t>丹戎不碌</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>35.71</t>
+          <t>57.14</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>丹戎不碌</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>42.86</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3489,109 +3489,109 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>德班</t>
+          <t>泽布吕赫</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6.45</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-10</t>
         </is>
       </c>
     </row>

--- a/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
+++ b/auto/new_data/7_上海航運交易所_港口班輪準確率.xlsx
@@ -503,57 +503,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>44.97</t>
+          <t>54.43</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -565,265 +565,265 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>39.04</t>
+          <t>42.01</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>269</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>宁波舟山</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>32.42</t>
+          <t>34.63</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>宁波舟山</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.83</t>
+          <t>26.21</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>丹吉尔</t>
+          <t>釜山</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>51.27</t>
+          <t>35.92</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>206</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>釜山</t>
+          <t>迪拜</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>33.96</t>
+          <t>61.86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>118</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -838,404 +838,404 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>巴生</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>64.77</t>
+          <t>62.83</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>113</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>丹吉尔</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>43.55</t>
+          <t>47.33</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>0.80</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>52.53</t>
+          <t>49.62</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>133</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>安特卫普</t>
+          <t>丹戎帕拉帕斯</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37.41</t>
+          <t>72.73</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>迪拜</t>
+          <t>鹿特丹</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>40.80</t>
+          <t>40.16</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>丹戎帕拉帕斯</t>
+          <t>巴生</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>62.03</t>
+          <t>53.93</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>89</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -1247,260 +1247,260 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>54.22</t>
+          <t>57.32</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>洛杉矶</t>
+          <t>纽约</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>55.71</t>
+          <t>44.66</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>103</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>鹿特丹</t>
+          <t>安特卫普</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>29.13</t>
+          <t>32.59</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>勒阿弗尔</t>
+          <t>高雄</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>44.74</t>
+          <t>44.87</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>瓦伦西亚</t>
+          <t>勒阿弗尔</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>42.50</t>
+          <t>40.24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1510,59 +1510,59 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>高雄</t>
+          <t>不莱梅</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>39.76</t>
+          <t>55.17</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>58</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1572,42 +1572,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.91</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>38.82</t>
+          <t>35.29</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1629,436 +1629,436 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>69.05</t>
+          <t>43.08</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>65</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>纽约</t>
+          <t>瓦伦西亚</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>33.33</t>
+          <t>37.50</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>72</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>曼萨尼约</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>40.98</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>61</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>墨尔本</t>
+          <t>诺福克</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>46.30</t>
+          <t>27.78</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>汉堡</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>24.49</t>
+          <t>72.73</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>奥克兰（美国）</t>
+          <t>洛杉矶</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>40.35</t>
+          <t>45.28</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>53</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>不莱梅</t>
+          <t>汉堡</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>34.92</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2068,617 +2068,617 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>长滩</t>
+          <t>林查班</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>62.50</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.38</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南安普顿</t>
+          <t>萨凡纳</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>53.85</t>
+          <t>25.32</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>诺福克</t>
+          <t>墨尔本</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>38.30</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.24</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>塞德港</t>
+          <t>奥克兰（美国）</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>71.43</t>
+          <t>38.10</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>巴塞罗那</t>
+          <t>塞德港</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>37.25</t>
+          <t>83.33</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>比雷埃夫斯</t>
+          <t>长滩</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>46.88</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1.67</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>热那亚</t>
+          <t>横滨</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>36.59</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>萨凡纳</t>
+          <t>比雷埃夫斯</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>35.71</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>横滨</t>
+          <t>南安普顿</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>34.78</t>
+          <t>43.33</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>1.46</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>巴塞罗那</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>29.27</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2688,59 +2688,59 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>林查班</t>
+          <t>休斯顿</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>40.00</t>
+          <t>23.53</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2750,600 +2750,600 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>曼萨尼约</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21.82</t>
+          <t>84.62</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>温哥华</t>
+          <t>弗利克斯托</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>37.93</t>
+          <t>44.00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>拉各斯</t>
+          <t>洛美</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>30.56</t>
+          <t>71.43</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2.14</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1.68</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>德班</t>
+          <t>拉各斯</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>32.14</t>
+          <t>29.41</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>9.51</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>休斯顿</t>
+          <t>热那亚</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20.45</t>
+          <t>21.05</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>弗利克斯托</t>
+          <t>吉达</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29.63</t>
+          <t>31.82</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>吉达</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38.89</t>
+          <t>20.69</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>洛美</t>
+          <t>德班</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37.50</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>奥克兰（新西兰）</t>
+          <t>温哥华</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29.41</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
@@ -3355,243 +3355,243 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>57.14</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>泽布吕赫</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>40.00</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>奥克兰（新西兰）</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>13.33</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>泽布吕赫</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-11</t>
         </is>
       </c>
     </row>
